--- a/mma/data/mma_mangroves.xlsx
+++ b/mma/data/mma_mangroves.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2720" uniqueCount="587">
   <si>
     <t>Date</t>
   </si>
@@ -594,9 +594,6 @@
     <t>Calamus calamus</t>
   </si>
   <si>
-    <t>Serranidae</t>
-  </si>
-  <si>
     <t>Carnivore</t>
   </si>
   <si>
@@ -676,6 +673,9 @@
   </si>
   <si>
     <t>Cephalopholis cruentata</t>
+  </si>
+  <si>
+    <t>Serranidae</t>
   </si>
   <si>
     <t>Coney</t>
@@ -1518,7 +1518,10 @@
     <t>Orange lumpy encrusting sponge</t>
   </si>
   <si>
-    <t>sponge</t>
+    <t>Sponge</t>
+  </si>
+  <si>
+    <t>Filter &amp; suspension feeders</t>
   </si>
   <si>
     <t>High</t>
@@ -1539,7 +1542,7 @@
     <t>Med</t>
   </si>
   <si>
-    <t>Halisarca spp</t>
+    <t>Halisarca spp.</t>
   </si>
   <si>
     <t xml:space="preserve">Star encrusting sponge </t>
@@ -1569,19 +1572,28 @@
     <t>Yellow sponge</t>
   </si>
   <si>
-    <t>haliclona spp.</t>
+    <t>Haliclona spp.</t>
   </si>
   <si>
-    <t>blue sponge</t>
+    <t>Blue sponge</t>
   </si>
   <si>
     <t>Porites porites</t>
   </si>
   <si>
-    <t>finger coral</t>
+    <t>Finger coral</t>
   </si>
   <si>
-    <t>coral</t>
+    <t>Stony coral</t>
+  </si>
+  <si>
+    <t>Mixotrophs</t>
+  </si>
+  <si>
+    <t>Siderastrea siderea</t>
+  </si>
+  <si>
+    <t>Massive starlet coral</t>
   </si>
   <si>
     <t>Siderastrea radians</t>
@@ -1590,7 +1602,7 @@
     <t>Lesser starlet coral</t>
   </si>
   <si>
-    <t xml:space="preserve">Stephanoconeia interspeta </t>
+    <t>Stephanocoenia intersepta</t>
   </si>
   <si>
     <t>Blushing star coral</t>
@@ -1599,16 +1611,19 @@
     <t>Manicina areolata</t>
   </si>
   <si>
-    <t>rose coral</t>
+    <t>Rose coral</t>
   </si>
   <si>
     <t>Isostichopus badionotus</t>
   </si>
   <si>
-    <t>Brown (three-rowed) sea cucumber</t>
+    <t>Chocolate chip sea cucumber</t>
   </si>
   <si>
-    <t>sea cucumber</t>
+    <t>Echinoderm</t>
+  </si>
+  <si>
+    <t>Detrivores</t>
   </si>
   <si>
     <t>Actinopygia agassizii</t>
@@ -1623,7 +1638,7 @@
     <t>West indian sea egg</t>
   </si>
   <si>
-    <t>sea urchin</t>
+    <t>Grazers</t>
   </si>
   <si>
     <t>Dendostrea frons</t>
@@ -1632,40 +1647,37 @@
     <t>Frond oyster</t>
   </si>
   <si>
-    <t>oyster</t>
+    <t>Mollusk</t>
   </si>
   <si>
     <t xml:space="preserve">Number = roots with one or more clusters </t>
   </si>
   <si>
-    <t>isognomon alatus</t>
+    <t>Isognomon alatus</t>
   </si>
   <si>
     <t>flat tree oyster</t>
   </si>
   <si>
-    <t xml:space="preserve">Sabellastarte spp </t>
+    <t>Sabellastarte spp.</t>
   </si>
   <si>
     <t>feather duster worm</t>
   </si>
   <si>
-    <t>worm</t>
+    <t>Worm</t>
   </si>
   <si>
     <t>Eupolymnia crassicornis</t>
   </si>
   <si>
-    <t>spaghetti worm</t>
+    <t>Spaghetti worm</t>
   </si>
   <si>
-    <t>Strombus gigas</t>
+    <t>Aliger gigas</t>
   </si>
   <si>
     <t>Queen Conch</t>
-  </si>
-  <si>
-    <t>conch</t>
   </si>
   <si>
     <t>Ecteinascidia turbinata</t>
@@ -1674,16 +1686,13 @@
     <t>Mangrove tunicate</t>
   </si>
   <si>
-    <t>tunicate</t>
-  </si>
-  <si>
     <t>Actinoporus elegans</t>
   </si>
   <si>
-    <t>elegant anemone</t>
+    <t>Elegant anemone</t>
   </si>
   <si>
-    <t>anemone</t>
+    <t>Cnidarian</t>
   </si>
   <si>
     <t>Thyroscyphus ramosus</t>
@@ -1692,16 +1701,10 @@
     <t>Algae hydroid</t>
   </si>
   <si>
-    <t>hydroid</t>
-  </si>
-  <si>
     <t>Cassiopea xamachana</t>
   </si>
   <si>
     <t>Upside down jellyfish</t>
-  </si>
-  <si>
-    <t>Jelly fish</t>
   </si>
   <si>
     <t>Botrylloides nigrum</t>
@@ -1710,13 +1713,10 @@
     <t>Flat tunicate</t>
   </si>
   <si>
-    <t>Porites asteroides</t>
+    <t>Porites astreoides</t>
   </si>
   <si>
     <t>mustard hill</t>
-  </si>
-  <si>
-    <t>Coral</t>
   </si>
   <si>
     <t>Porites furcata</t>
@@ -1731,10 +1731,7 @@
     <t>Corkscrew anemone</t>
   </si>
   <si>
-    <t>Zooanthid spp</t>
-  </si>
-  <si>
-    <t>Zooanthid</t>
+    <t>Zooanthid spp.</t>
   </si>
   <si>
     <t>Agaricia agaricites</t>
@@ -1743,43 +1740,37 @@
     <t>Lettuce coral</t>
   </si>
   <si>
-    <t>Gorgonian spp</t>
+    <t>Gorgonian spp.</t>
   </si>
   <si>
     <t>Soft coral</t>
   </si>
   <si>
-    <t>Unknown oyster spp</t>
+    <t>Unknown oyster spp.</t>
   </si>
   <si>
-    <t>Oyster spp</t>
-  </si>
-  <si>
-    <t>Oyster</t>
+    <t>Oyster spp.</t>
   </si>
   <si>
     <t>Porites divaricata</t>
   </si>
   <si>
-    <t>niphates amorpha</t>
+    <t>Thin finger coral</t>
+  </si>
+  <si>
+    <t>Niphates amorpha</t>
   </si>
   <si>
     <t>green sponge</t>
   </si>
   <si>
-    <t>Sponge</t>
+    <t>Porites faveolata</t>
   </si>
   <si>
-    <t>Siderastrea siderea</t>
-  </si>
-  <si>
-    <t>massive stralet coral</t>
+    <t>finger coral</t>
   </si>
   <si>
     <t>high</t>
-  </si>
-  <si>
-    <t>Porites faveolata</t>
   </si>
   <si>
     <t>Gonodactylus curacaoensis</t>
@@ -1788,7 +1779,7 @@
     <t>Dark mantis</t>
   </si>
   <si>
-    <t>Shrimp</t>
+    <t>Crustacean</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1875,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1993,6 +1984,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -2613,7 +2607,7 @@
         <v>2.98</v>
       </c>
       <c r="O2" s="7">
-        <f t="shared" ref="O2:O424" si="1">M2*F2^N2</f>
+        <f t="shared" ref="O2:O405" si="1">M2*F2^N2</f>
         <v>14.13389027</v>
       </c>
     </row>
@@ -23218,576 +23212,25 @@
         <v>97.58691342</v>
       </c>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
-      <c r="I406" s="7" t="str">
-        <f>VLOOKUP(E406,lookups_fish!$A$2:$I$200,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J406" s="7" t="str">
-        <f>VLOOKUP(E406,lookups_fish!$A$2:$I$200,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K406" s="7" t="str">
-        <f>VLOOKUP(E406,lookups_fish!$A$2:$I$200,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L406" s="7" t="str">
-        <f>VLOOKUP(E406,lookups_fish!$A$2:$I$200,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M406" s="7" t="str">
-        <f>VLOOKUP(E406,lookups_fish!$A$2:$I$200,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N406" s="7" t="str">
-        <f>VLOOKUP(E406,lookups_fish!$A$2:$I$200,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O406" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="407" ht="15.75" customHeight="1">
-      <c r="I407" s="7" t="str">
-        <f>VLOOKUP(E407,lookups_fish!$A$2:$I$200,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J407" s="7" t="str">
-        <f>VLOOKUP(E407,lookups_fish!$A$2:$I$200,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K407" s="7" t="str">
-        <f>VLOOKUP(E407,lookups_fish!$A$2:$I$200,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L407" s="7" t="str">
-        <f>VLOOKUP(E407,lookups_fish!$A$2:$I$200,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M407" s="7" t="str">
-        <f>VLOOKUP(E407,lookups_fish!$A$2:$I$200,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N407" s="7" t="str">
-        <f>VLOOKUP(E407,lookups_fish!$A$2:$I$200,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O407" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="408" ht="15.75" customHeight="1">
-      <c r="I408" s="7" t="str">
-        <f>VLOOKUP(E408,lookups_fish!$A$2:$I$200,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J408" s="7" t="str">
-        <f>VLOOKUP(E408,lookups_fish!$A$2:$I$200,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K408" s="7" t="str">
-        <f>VLOOKUP(E408,lookups_fish!$A$2:$I$200,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L408" s="7" t="str">
-        <f>VLOOKUP(E408,lookups_fish!$A$2:$I$200,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M408" s="7" t="str">
-        <f>VLOOKUP(E408,lookups_fish!$A$2:$I$200,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N408" s="7" t="str">
-        <f>VLOOKUP(E408,lookups_fish!$A$2:$I$200,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O408" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="409" ht="15.75" customHeight="1">
-      <c r="I409" s="7" t="str">
-        <f>VLOOKUP(E409,lookups_fish!$A$2:$I$200,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J409" s="7" t="str">
-        <f>VLOOKUP(E409,lookups_fish!$A$2:$I$200,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K409" s="7" t="str">
-        <f>VLOOKUP(E409,lookups_fish!$A$2:$I$200,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L409" s="7" t="str">
-        <f>VLOOKUP(E409,lookups_fish!$A$2:$I$200,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M409" s="7" t="str">
-        <f>VLOOKUP(E409,lookups_fish!$A$2:$I$200,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N409" s="7" t="str">
-        <f>VLOOKUP(E409,lookups_fish!$A$2:$I$200,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O409" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="410" ht="15.75" customHeight="1">
-      <c r="I410" s="7" t="str">
-        <f>VLOOKUP(E410,lookups_fish!$A$2:$I$200,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J410" s="7" t="str">
-        <f>VLOOKUP(E410,lookups_fish!$A$2:$I$200,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K410" s="7" t="str">
-        <f>VLOOKUP(E410,lookups_fish!$A$2:$I$200,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L410" s="7" t="str">
-        <f>VLOOKUP(E410,lookups_fish!$A$2:$I$200,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M410" s="7" t="str">
-        <f>VLOOKUP(E410,lookups_fish!$A$2:$I$200,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N410" s="7" t="str">
-        <f>VLOOKUP(E410,lookups_fish!$A$2:$I$200,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O410" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="411" ht="15.75" customHeight="1">
-      <c r="I411" s="7" t="str">
-        <f>VLOOKUP(E411,lookups_fish!$A$2:$I$200,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J411" s="7" t="str">
-        <f>VLOOKUP(E411,lookups_fish!$A$2:$I$200,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K411" s="7" t="str">
-        <f>VLOOKUP(E411,lookups_fish!$A$2:$I$200,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L411" s="7" t="str">
-        <f>VLOOKUP(E411,lookups_fish!$A$2:$I$200,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M411" s="7" t="str">
-        <f>VLOOKUP(E411,lookups_fish!$A$2:$I$200,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N411" s="7" t="str">
-        <f>VLOOKUP(E411,lookups_fish!$A$2:$I$200,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O411" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="412" ht="15.75" customHeight="1">
-      <c r="I412" s="7" t="str">
-        <f>VLOOKUP(E412,lookups_fish!$A$2:$I$200,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J412" s="7" t="str">
-        <f>VLOOKUP(E412,lookups_fish!$A$2:$I$200,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K412" s="7" t="str">
-        <f>VLOOKUP(E412,lookups_fish!$A$2:$I$200,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L412" s="7" t="str">
-        <f>VLOOKUP(E412,lookups_fish!$A$2:$I$200,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M412" s="7" t="str">
-        <f>VLOOKUP(E412,lookups_fish!$A$2:$I$200,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N412" s="7" t="str">
-        <f>VLOOKUP(E412,lookups_fish!$A$2:$I$200,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O412" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="413" ht="15.75" customHeight="1">
-      <c r="I413" s="7" t="str">
-        <f>VLOOKUP(E413,lookups_fish!$A$2:$I$200,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J413" s="7" t="str">
-        <f>VLOOKUP(E413,lookups_fish!$A$2:$I$200,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K413" s="7" t="str">
-        <f>VLOOKUP(E413,lookups_fish!$A$2:$I$200,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L413" s="7" t="str">
-        <f>VLOOKUP(E413,lookups_fish!$A$2:$I$200,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M413" s="7" t="str">
-        <f>VLOOKUP(E413,lookups_fish!$A$2:$I$200,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N413" s="7" t="str">
-        <f>VLOOKUP(E413,lookups_fish!$A$2:$I$200,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O413" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="414" ht="15.75" customHeight="1">
-      <c r="I414" s="7" t="str">
-        <f>VLOOKUP(E414,lookups_fish!$A$2:$I$200,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J414" s="7" t="str">
-        <f>VLOOKUP(E414,lookups_fish!$A$2:$I$200,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K414" s="7" t="str">
-        <f>VLOOKUP(E414,lookups_fish!$A$2:$I$200,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L414" s="7" t="str">
-        <f>VLOOKUP(E414,lookups_fish!$A$2:$I$200,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M414" s="7" t="str">
-        <f>VLOOKUP(E414,lookups_fish!$A$2:$I$200,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N414" s="7" t="str">
-        <f>VLOOKUP(E414,lookups_fish!$A$2:$I$200,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O414" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="415" ht="15.75" customHeight="1">
-      <c r="I415" s="7" t="str">
-        <f>VLOOKUP(E415,lookups_fish!$A$2:$I$200,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J415" s="7" t="str">
-        <f>VLOOKUP(E415,lookups_fish!$A$2:$I$200,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K415" s="7" t="str">
-        <f>VLOOKUP(E415,lookups_fish!$A$2:$I$200,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L415" s="7" t="str">
-        <f>VLOOKUP(E415,lookups_fish!$A$2:$I$200,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M415" s="7" t="str">
-        <f>VLOOKUP(E415,lookups_fish!$A$2:$I$200,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N415" s="7" t="str">
-        <f>VLOOKUP(E415,lookups_fish!$A$2:$I$200,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O415" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="416" ht="15.75" customHeight="1">
-      <c r="I416" s="7" t="str">
-        <f>VLOOKUP(E416,lookups_fish!$A$2:$I$200,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J416" s="7" t="str">
-        <f>VLOOKUP(E416,lookups_fish!$A$2:$I$200,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K416" s="7" t="str">
-        <f>VLOOKUP(E416,lookups_fish!$A$2:$I$200,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L416" s="7" t="str">
-        <f>VLOOKUP(E416,lookups_fish!$A$2:$I$200,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M416" s="7" t="str">
-        <f>VLOOKUP(E416,lookups_fish!$A$2:$I$200,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N416" s="7" t="str">
-        <f>VLOOKUP(E416,lookups_fish!$A$2:$I$200,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O416" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="417" ht="15.75" customHeight="1">
-      <c r="I417" s="7" t="str">
-        <f>VLOOKUP(E417,lookups_fish!$A$2:$I$200,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J417" s="7" t="str">
-        <f>VLOOKUP(E417,lookups_fish!$A$2:$I$200,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K417" s="7" t="str">
-        <f>VLOOKUP(E417,lookups_fish!$A$2:$I$200,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L417" s="7" t="str">
-        <f>VLOOKUP(E417,lookups_fish!$A$2:$I$200,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M417" s="7" t="str">
-        <f>VLOOKUP(E417,lookups_fish!$A$2:$I$200,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N417" s="7" t="str">
-        <f>VLOOKUP(E417,lookups_fish!$A$2:$I$200,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O417" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="418" ht="15.75" customHeight="1">
-      <c r="I418" s="7" t="str">
-        <f>VLOOKUP(E418,lookups_fish!$A$2:$I$200,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J418" s="7" t="str">
-        <f>VLOOKUP(E418,lookups_fish!$A$2:$I$200,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K418" s="7" t="str">
-        <f>VLOOKUP(E418,lookups_fish!$A$2:$I$200,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L418" s="7" t="str">
-        <f>VLOOKUP(E418,lookups_fish!$A$2:$I$200,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M418" s="7" t="str">
-        <f>VLOOKUP(E418,lookups_fish!$A$2:$I$200,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N418" s="7" t="str">
-        <f>VLOOKUP(E418,lookups_fish!$A$2:$I$200,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O418" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="419" ht="15.75" customHeight="1">
-      <c r="I419" s="7" t="str">
-        <f>VLOOKUP(E419,lookups_fish!$A$2:$I$200,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J419" s="7" t="str">
-        <f>VLOOKUP(E419,lookups_fish!$A$2:$I$200,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K419" s="7" t="str">
-        <f>VLOOKUP(E419,lookups_fish!$A$2:$I$200,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L419" s="7" t="str">
-        <f>VLOOKUP(E419,lookups_fish!$A$2:$I$200,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M419" s="7" t="str">
-        <f>VLOOKUP(E419,lookups_fish!$A$2:$I$200,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N419" s="7" t="str">
-        <f>VLOOKUP(E419,lookups_fish!$A$2:$I$200,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O419" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="420" ht="15.75" customHeight="1">
-      <c r="I420" s="7" t="str">
-        <f>VLOOKUP(E420,lookups_fish!$A$2:$I$200,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J420" s="7" t="str">
-        <f>VLOOKUP(E420,lookups_fish!$A$2:$I$200,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K420" s="7" t="str">
-        <f>VLOOKUP(E420,lookups_fish!$A$2:$I$200,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L420" s="7" t="str">
-        <f>VLOOKUP(E420,lookups_fish!$A$2:$I$200,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M420" s="7" t="str">
-        <f>VLOOKUP(E420,lookups_fish!$A$2:$I$200,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N420" s="7" t="str">
-        <f>VLOOKUP(E420,lookups_fish!$A$2:$I$200,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O420" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="421" ht="15.75" customHeight="1">
-      <c r="I421" s="7" t="str">
-        <f>VLOOKUP(E421,lookups_fish!$A$2:$I$200,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J421" s="7" t="str">
-        <f>VLOOKUP(E421,lookups_fish!$A$2:$I$200,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K421" s="7" t="str">
-        <f>VLOOKUP(E421,lookups_fish!$A$2:$I$200,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L421" s="7" t="str">
-        <f>VLOOKUP(E421,lookups_fish!$A$2:$I$200,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M421" s="7" t="str">
-        <f>VLOOKUP(E421,lookups_fish!$A$2:$I$200,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N421" s="7" t="str">
-        <f>VLOOKUP(E421,lookups_fish!$A$2:$I$200,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O421" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="422" ht="15.75" customHeight="1">
-      <c r="I422" s="7" t="str">
-        <f>VLOOKUP(E422,lookups_fish!$A$2:$I$200,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J422" s="7" t="str">
-        <f>VLOOKUP(E422,lookups_fish!$A$2:$I$200,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K422" s="7" t="str">
-        <f>VLOOKUP(E422,lookups_fish!$A$2:$I$200,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L422" s="7" t="str">
-        <f>VLOOKUP(E422,lookups_fish!$A$2:$I$200,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M422" s="7" t="str">
-        <f>VLOOKUP(E422,lookups_fish!$A$2:$I$200,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N422" s="7" t="str">
-        <f>VLOOKUP(E422,lookups_fish!$A$2:$I$200,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O422" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="423" ht="15.75" customHeight="1">
-      <c r="I423" s="7" t="str">
-        <f>VLOOKUP(E423,lookups_fish!$A$2:$I$200,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J423" s="7" t="str">
-        <f>VLOOKUP(E423,lookups_fish!$A$2:$I$200,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K423" s="7" t="str">
-        <f>VLOOKUP(E423,lookups_fish!$A$2:$I$200,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L423" s="7" t="str">
-        <f>VLOOKUP(E423,lookups_fish!$A$2:$I$200,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M423" s="7" t="str">
-        <f>VLOOKUP(E423,lookups_fish!$A$2:$I$200,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N423" s="7" t="str">
-        <f>VLOOKUP(E423,lookups_fish!$A$2:$I$200,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O423" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="424" ht="15.75" customHeight="1">
-      <c r="I424" s="7" t="str">
-        <f>VLOOKUP(E424,lookups_fish!$A$2:$I$200,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J424" s="7" t="str">
-        <f>VLOOKUP(E424,lookups_fish!$A$2:$I$200,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K424" s="7" t="str">
-        <f>VLOOKUP(E424,lookups_fish!$A$2:$I$200,4,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L424" s="7" t="str">
-        <f>VLOOKUP(E424,lookups_fish!$A$2:$I$200,5,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M424" s="7" t="str">
-        <f>VLOOKUP(E424,lookups_fish!$A$2:$I$200,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N424" s="7" t="str">
-        <f>VLOOKUP(E424,lookups_fish!$A$2:$I$200,7,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O424" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-    </row>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
     <row r="425" ht="15.75" customHeight="1"/>
     <row r="426" ht="15.75" customHeight="1"/>
     <row r="427" ht="15.75" customHeight="1"/>
@@ -24407,6 +23850,9 @@
       <c r="H1" s="17" t="s">
         <v>92</v>
       </c>
+      <c r="I1" s="17" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="3">
@@ -24428,12 +23874,16 @@
         <v>29.0</v>
       </c>
       <c r="G2" s="2" t="str">
-        <f>VLOOKUP(E2,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E2,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Tedania ignis</v>
       </c>
       <c r="H2" s="2" t="str">
-        <f>VLOOKUP(E2,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E2,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f>VLOOKUP(E2,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="3">
@@ -24456,12 +23906,16 @@
         <v>2.0</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f>VLOOKUP(E3,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E3,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Porites porites</v>
       </c>
       <c r="H3" s="2" t="str">
-        <f>VLOOKUP(E3,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>coral</v>
+        <f>VLOOKUP(E3,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f>VLOOKUP(E3,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="4">
@@ -24484,12 +23938,16 @@
         <v>48.0</v>
       </c>
       <c r="G4" s="2" t="str">
-        <f>VLOOKUP(E4,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>isognomon alatus</v>
+        <f>VLOOKUP(E4,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Isognomon alatus</v>
       </c>
       <c r="H4" s="2" t="str">
-        <f>VLOOKUP(E4,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>oyster</v>
+        <f>VLOOKUP(E4,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f>VLOOKUP(E4,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="5">
@@ -24512,12 +23970,16 @@
         <v>4.0</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f>VLOOKUP(E5,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Sabellastarte spp </v>
+        <f>VLOOKUP(E5,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Sabellastarte spp.</v>
       </c>
       <c r="H5" s="2" t="str">
-        <f>VLOOKUP(E5,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>worm</v>
+        <f>VLOOKUP(E5,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Worm</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f>VLOOKUP(E5,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="6">
@@ -24540,12 +24002,16 @@
         <v>2.0</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f>VLOOKUP(E6,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E6,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Dysidea etheria</v>
       </c>
       <c r="H6" s="2" t="str">
-        <f>VLOOKUP(E6,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E6,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f>VLOOKUP(E6,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="7">
@@ -24568,12 +24034,16 @@
         <v>5.0</v>
       </c>
       <c r="G7" s="2" t="str">
-        <f>VLOOKUP(E7,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E7,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Phallusia nigra</v>
       </c>
       <c r="H7" s="2" t="str">
-        <f>VLOOKUP(E7,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E7,lookups_invert!$A$2:$F$102,4,0)</f>
         <v>Tunicate</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f>VLOOKUP(E7,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="8">
@@ -24596,12 +24066,16 @@
         <v>2.0</v>
       </c>
       <c r="G8" s="2" t="str">
-        <f>VLOOKUP(E8,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E8,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Aplysina spp.</v>
       </c>
       <c r="H8" s="2" t="str">
-        <f>VLOOKUP(E8,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E8,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f>VLOOKUP(E8,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="9">
@@ -24624,12 +24098,16 @@
         <v>1.0</v>
       </c>
       <c r="G9" s="2" t="str">
-        <f>VLOOKUP(E9,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E9,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Isostichopus badionotus</v>
       </c>
       <c r="H9" s="2" t="str">
-        <f>VLOOKUP(E9,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sea cucumber</v>
+        <f>VLOOKUP(E9,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Echinoderm</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f>VLOOKUP(E9,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Detrivores</v>
       </c>
     </row>
     <row r="10">
@@ -24652,12 +24130,16 @@
         <v>5.0</v>
       </c>
       <c r="G10" s="2" t="str">
-        <f>VLOOKUP(E10,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E10,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Dendostrea frons</v>
       </c>
       <c r="H10" s="2" t="str">
-        <f>VLOOKUP(E10,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>oyster</v>
+        <f>VLOOKUP(E10,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f>VLOOKUP(E10,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="11">
@@ -24680,12 +24162,16 @@
         <v>6.0</v>
       </c>
       <c r="G11" s="2" t="str">
-        <f>VLOOKUP(E11,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E11,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Dendostrea frons</v>
       </c>
       <c r="H11" s="2" t="str">
-        <f>VLOOKUP(E11,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>oyster</v>
+        <f>VLOOKUP(E11,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f>VLOOKUP(E11,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="12">
@@ -24708,12 +24194,16 @@
         <v>11.0</v>
       </c>
       <c r="G12" s="2" t="str">
-        <f>VLOOKUP(E12,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E12,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Tedania ignis</v>
       </c>
       <c r="H12" s="2" t="str">
-        <f>VLOOKUP(E12,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E12,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f>VLOOKUP(E12,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="13">
@@ -24736,12 +24226,16 @@
         <v>3.0</v>
       </c>
       <c r="G13" s="2" t="str">
-        <f>VLOOKUP(E13,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E13,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Phallusia nigra</v>
       </c>
       <c r="H13" s="2" t="str">
-        <f>VLOOKUP(E13,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E13,lookups_invert!$A$2:$F$102,4,0)</f>
         <v>Tunicate</v>
+      </c>
+      <c r="I13" s="2" t="str">
+        <f>VLOOKUP(E13,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="14">
@@ -24764,12 +24258,16 @@
         <v>1.0</v>
       </c>
       <c r="G14" s="2" t="str">
-        <f>VLOOKUP(E14,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>isognomon alatus</v>
+        <f>VLOOKUP(E14,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Isognomon alatus</v>
       </c>
       <c r="H14" s="2" t="str">
-        <f>VLOOKUP(E14,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>oyster</v>
+        <f>VLOOKUP(E14,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f>VLOOKUP(E14,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="15">
@@ -24792,12 +24290,16 @@
         <v>1.0</v>
       </c>
       <c r="G15" s="2" t="str">
-        <f>VLOOKUP(E15,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E15,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Siderastrea radians</v>
       </c>
       <c r="H15" s="2" t="str">
-        <f>VLOOKUP(E15,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>coral</v>
+        <f>VLOOKUP(E15,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I15" s="2" t="str">
+        <f>VLOOKUP(E15,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="16">
@@ -24820,12 +24322,16 @@
         <v>3.0</v>
       </c>
       <c r="G16" s="2" t="str">
-        <f>VLOOKUP(E16,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Stephanoconeia interspeta </v>
+        <f>VLOOKUP(E16,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Stephanocoenia intersepta</v>
       </c>
       <c r="H16" s="2" t="str">
-        <f>VLOOKUP(E16,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>coral</v>
+        <f>VLOOKUP(E16,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f>VLOOKUP(E16,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="17">
@@ -24848,12 +24354,16 @@
         <v>3.0</v>
       </c>
       <c r="G17" s="2" t="str">
-        <f>VLOOKUP(E17,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Strombus gigas</v>
+        <f>VLOOKUP(E17,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Aliger gigas</v>
       </c>
       <c r="H17" s="2" t="str">
-        <f>VLOOKUP(E17,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>conch</v>
+        <f>VLOOKUP(E17,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I17" s="2" t="str">
+        <f>VLOOKUP(E17,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="18">
@@ -24876,12 +24386,16 @@
         <v>1.0</v>
       </c>
       <c r="G18" s="2" t="str">
-        <f>VLOOKUP(E18,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Sabellastarte spp </v>
+        <f>VLOOKUP(E18,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Sabellastarte spp.</v>
       </c>
       <c r="H18" s="2" t="str">
-        <f>VLOOKUP(E18,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>worm</v>
+        <f>VLOOKUP(E18,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Worm</v>
+      </c>
+      <c r="I18" s="2" t="str">
+        <f>VLOOKUP(E18,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="19">
@@ -24904,12 +24418,16 @@
         <v>1.0</v>
       </c>
       <c r="G19" s="2" t="str">
-        <f>VLOOKUP(E19,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>haliclona spp.</v>
+        <f>VLOOKUP(E19,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Haliclona spp.</v>
       </c>
       <c r="H19" s="2" t="str">
-        <f>VLOOKUP(E19,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E19,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I19" s="2" t="str">
+        <f>VLOOKUP(E19,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="20">
@@ -24932,12 +24450,16 @@
         <v>1.0</v>
       </c>
       <c r="G20" s="2" t="str">
-        <f>VLOOKUP(E20,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E20,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Tripneustes ventricosus</v>
       </c>
       <c r="H20" s="2" t="str">
-        <f>VLOOKUP(E20,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sea urchin</v>
+        <f>VLOOKUP(E20,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Echinoderm</v>
+      </c>
+      <c r="I20" s="2" t="str">
+        <f>VLOOKUP(E20,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Grazers</v>
       </c>
     </row>
     <row r="21">
@@ -24960,12 +24482,16 @@
         <v>10.0</v>
       </c>
       <c r="G21" s="2" t="str">
-        <f>VLOOKUP(E21,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Sabellastarte spp </v>
+        <f>VLOOKUP(E21,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Sabellastarte spp.</v>
       </c>
       <c r="H21" s="2" t="str">
-        <f>VLOOKUP(E21,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>worm</v>
+        <f>VLOOKUP(E21,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Worm</v>
+      </c>
+      <c r="I21" s="2" t="str">
+        <f>VLOOKUP(E21,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="22">
@@ -24988,12 +24514,16 @@
         <v>4.0</v>
       </c>
       <c r="G22" s="2" t="str">
-        <f>VLOOKUP(E22,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E22,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Aplysina spp.</v>
       </c>
       <c r="H22" s="2" t="str">
-        <f>VLOOKUP(E22,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E22,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I22" s="2" t="str">
+        <f>VLOOKUP(E22,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="23">
@@ -25016,12 +24546,16 @@
         <v>25.0</v>
       </c>
       <c r="G23" s="2" t="str">
-        <f>VLOOKUP(E23,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E23,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Scopalina ruetzleri</v>
       </c>
       <c r="H23" s="2" t="str">
-        <f>VLOOKUP(E23,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E23,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I23" s="2" t="str">
+        <f>VLOOKUP(E23,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="24">
@@ -25044,12 +24578,16 @@
         <v>14.0</v>
       </c>
       <c r="G24" s="2" t="str">
-        <f>VLOOKUP(E24,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E24,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Suberites auriantaca</v>
       </c>
       <c r="H24" s="2" t="str">
-        <f>VLOOKUP(E24,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E24,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I24" s="2" t="str">
+        <f>VLOOKUP(E24,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="25">
@@ -25072,12 +24610,16 @@
         <v>4.0</v>
       </c>
       <c r="G25" s="2" t="str">
-        <f>VLOOKUP(E25,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E25,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Phallusia nigra</v>
       </c>
       <c r="H25" s="2" t="str">
-        <f>VLOOKUP(E25,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E25,lookups_invert!$A$2:$F$102,4,0)</f>
         <v>Tunicate</v>
+      </c>
+      <c r="I25" s="2" t="str">
+        <f>VLOOKUP(E25,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="26">
@@ -25100,12 +24642,16 @@
         <v>1.0</v>
       </c>
       <c r="G26" s="2" t="str">
-        <f>VLOOKUP(E26,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E26,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Dendostrea frons</v>
       </c>
       <c r="H26" s="2" t="str">
-        <f>VLOOKUP(E26,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>oyster</v>
+        <f>VLOOKUP(E26,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I26" s="2" t="str">
+        <f>VLOOKUP(E26,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="27">
@@ -25128,12 +24674,16 @@
         <v>3.0</v>
       </c>
       <c r="G27" s="2" t="str">
-        <f>VLOOKUP(E27,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>haliclona spp.</v>
+        <f>VLOOKUP(E27,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Haliclona spp.</v>
       </c>
       <c r="H27" s="2" t="str">
-        <f>VLOOKUP(E27,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E27,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I27" s="2" t="str">
+        <f>VLOOKUP(E27,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="28">
@@ -25156,12 +24706,16 @@
         <v>10.0</v>
       </c>
       <c r="G28" s="2" t="str">
-        <f>VLOOKUP(E28,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E28,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Tedania ignis</v>
       </c>
       <c r="H28" s="2" t="str">
-        <f>VLOOKUP(E28,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E28,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I28" s="2" t="str">
+        <f>VLOOKUP(E28,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="29">
@@ -25184,12 +24738,16 @@
         <v>1.0</v>
       </c>
       <c r="G29" s="2" t="str">
-        <f>VLOOKUP(E29,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E29,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Aplysina spp.</v>
       </c>
       <c r="H29" s="2" t="str">
-        <f>VLOOKUP(E29,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E29,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I29" s="2" t="str">
+        <f>VLOOKUP(E29,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="30">
@@ -25212,12 +24770,16 @@
         <v>2.0</v>
       </c>
       <c r="G30" s="2" t="str">
-        <f>VLOOKUP(E30,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E30,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Dysidea etheria</v>
       </c>
       <c r="H30" s="2" t="str">
-        <f>VLOOKUP(E30,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E30,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I30" s="2" t="str">
+        <f>VLOOKUP(E30,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="31">
@@ -25240,12 +24802,16 @@
         <v>1.0</v>
       </c>
       <c r="G31" s="2" t="str">
-        <f>VLOOKUP(E31,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E31,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Actinopygia agassizii</v>
       </c>
       <c r="H31" s="2" t="str">
-        <f>VLOOKUP(E31,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sea cucumber</v>
+        <f>VLOOKUP(E31,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Echinoderm</v>
+      </c>
+      <c r="I31" s="2" t="str">
+        <f>VLOOKUP(E31,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Detrivores</v>
       </c>
     </row>
     <row r="32">
@@ -25268,12 +24834,16 @@
         <v>3.0</v>
       </c>
       <c r="G32" s="2" t="str">
-        <f>VLOOKUP(E32,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>haliclona spp.</v>
+        <f>VLOOKUP(E32,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Haliclona spp.</v>
       </c>
       <c r="H32" s="2" t="str">
-        <f>VLOOKUP(E32,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E32,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I32" s="2" t="str">
+        <f>VLOOKUP(E32,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="33">
@@ -25296,12 +24866,16 @@
         <v>15.0</v>
       </c>
       <c r="G33" s="2" t="str">
-        <f>VLOOKUP(E33,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E33,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Scopalina ruetzleri</v>
       </c>
       <c r="H33" s="2" t="str">
-        <f>VLOOKUP(E33,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E33,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I33" s="2" t="str">
+        <f>VLOOKUP(E33,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="34">
@@ -25324,12 +24898,16 @@
         <v>28.0</v>
       </c>
       <c r="G34" s="2" t="str">
-        <f>VLOOKUP(E34,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Sabellastarte spp </v>
+        <f>VLOOKUP(E34,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Sabellastarte spp.</v>
       </c>
       <c r="H34" s="2" t="str">
-        <f>VLOOKUP(E34,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>worm</v>
+        <f>VLOOKUP(E34,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Worm</v>
+      </c>
+      <c r="I34" s="2" t="str">
+        <f>VLOOKUP(E34,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="35">
@@ -25352,12 +24930,16 @@
         <v>11.0</v>
       </c>
       <c r="G35" s="2" t="str">
-        <f>VLOOKUP(E35,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E35,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Tedania ignis</v>
       </c>
       <c r="H35" s="2" t="str">
-        <f>VLOOKUP(E35,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E35,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I35" s="2" t="str">
+        <f>VLOOKUP(E35,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="36">
@@ -25380,12 +24962,16 @@
         <v>3.0</v>
       </c>
       <c r="G36" s="2" t="str">
-        <f>VLOOKUP(E36,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E36,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Phallusia nigra</v>
       </c>
       <c r="H36" s="2" t="str">
-        <f>VLOOKUP(E36,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E36,lookups_invert!$A$2:$F$102,4,0)</f>
         <v>Tunicate</v>
+      </c>
+      <c r="I36" s="2" t="str">
+        <f>VLOOKUP(E36,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="37">
@@ -25408,12 +24994,16 @@
         <v>14.0</v>
       </c>
       <c r="G37" s="2" t="str">
-        <f>VLOOKUP(E37,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E37,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Suberites auriantaca</v>
       </c>
       <c r="H37" s="2" t="str">
-        <f>VLOOKUP(E37,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E37,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I37" s="2" t="str">
+        <f>VLOOKUP(E37,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="38">
@@ -25436,12 +25026,16 @@
         <v>9.0</v>
       </c>
       <c r="G38" s="2" t="str">
-        <f>VLOOKUP(E38,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Halisarca spp</v>
+        <f>VLOOKUP(E38,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Halisarca spp.</v>
       </c>
       <c r="H38" s="2" t="str">
-        <f>VLOOKUP(E38,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E38,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I38" s="2" t="str">
+        <f>VLOOKUP(E38,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="39">
@@ -25464,12 +25058,16 @@
         <v>14.0</v>
       </c>
       <c r="G39" s="2" t="str">
-        <f>VLOOKUP(E39,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E39,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Ecteinascidia turbinata</v>
       </c>
       <c r="H39" s="2" t="str">
-        <f>VLOOKUP(E39,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>tunicate</v>
+        <f>VLOOKUP(E39,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Tunicate</v>
+      </c>
+      <c r="I39" s="2" t="str">
+        <f>VLOOKUP(E39,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="40">
@@ -25492,12 +25090,16 @@
         <v>1.0</v>
       </c>
       <c r="G40" s="2" t="str">
-        <f>VLOOKUP(E40,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E40,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Dysidea etheria</v>
       </c>
       <c r="H40" s="2" t="str">
-        <f>VLOOKUP(E40,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E40,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I40" s="2" t="str">
+        <f>VLOOKUP(E40,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="41">
@@ -25520,12 +25122,16 @@
         <v>1.0</v>
       </c>
       <c r="G41" s="2" t="str">
-        <f>VLOOKUP(E41,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E41,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Dendostrea frons</v>
       </c>
       <c r="H41" s="2" t="str">
-        <f>VLOOKUP(E41,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>oyster</v>
+        <f>VLOOKUP(E41,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I41" s="2" t="str">
+        <f>VLOOKUP(E41,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="42">
@@ -25548,12 +25154,16 @@
         <v>5.0</v>
       </c>
       <c r="G42" s="2" t="str">
-        <f>VLOOKUP(E42,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>isognomon alatus</v>
+        <f>VLOOKUP(E42,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Isognomon alatus</v>
       </c>
       <c r="H42" s="2" t="str">
-        <f>VLOOKUP(E42,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>oyster</v>
+        <f>VLOOKUP(E42,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I42" s="2" t="str">
+        <f>VLOOKUP(E42,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="43">
@@ -25576,12 +25186,16 @@
         <v>1.0</v>
       </c>
       <c r="G43" s="2" t="str">
-        <f>VLOOKUP(E43,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E43,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Aplysina spp.</v>
       </c>
       <c r="H43" s="2" t="str">
-        <f>VLOOKUP(E43,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E43,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I43" s="2" t="str">
+        <f>VLOOKUP(E43,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="44">
@@ -25604,12 +25218,16 @@
         <v>2.0</v>
       </c>
       <c r="G44" s="2" t="str">
-        <f>VLOOKUP(E44,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E44,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Eupolymnia crassicornis</v>
       </c>
       <c r="H44" s="2" t="str">
-        <f>VLOOKUP(E44,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>worm</v>
+        <f>VLOOKUP(E44,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Worm</v>
+      </c>
+      <c r="I44" s="2" t="str">
+        <f>VLOOKUP(E44,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="45">
@@ -25632,12 +25250,16 @@
         <v>1.0</v>
       </c>
       <c r="G45" s="2" t="str">
-        <f>VLOOKUP(E45,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E45,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Manicina areolata</v>
       </c>
       <c r="H45" s="2" t="str">
-        <f>VLOOKUP(E45,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>coral</v>
+        <f>VLOOKUP(E45,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I45" s="2" t="str">
+        <f>VLOOKUP(E45,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="46">
@@ -25660,12 +25282,16 @@
         <v>3.0</v>
       </c>
       <c r="G46" s="2" t="str">
-        <f>VLOOKUP(E46,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E46,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Porites porites</v>
       </c>
       <c r="H46" s="2" t="str">
-        <f>VLOOKUP(E46,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>coral</v>
+        <f>VLOOKUP(E46,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I46" s="2" t="str">
+        <f>VLOOKUP(E46,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="47">
@@ -25688,12 +25314,16 @@
         <v>3.0</v>
       </c>
       <c r="G47" s="2" t="str">
-        <f>VLOOKUP(E47,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E47,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Actinoporus elegans</v>
       </c>
       <c r="H47" s="2" t="str">
-        <f>VLOOKUP(E47,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>anemone</v>
+        <f>VLOOKUP(E47,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Cnidarian</v>
+      </c>
+      <c r="I47" s="2" t="str">
+        <f>VLOOKUP(E47,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Carnivores</v>
       </c>
     </row>
     <row r="48">
@@ -25716,12 +25346,16 @@
         <v>2.0</v>
       </c>
       <c r="G48" s="2" t="str">
-        <f>VLOOKUP(E48,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E48,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Porites porites</v>
       </c>
       <c r="H48" s="2" t="str">
-        <f>VLOOKUP(E48,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>coral</v>
+        <f>VLOOKUP(E48,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I48" s="2" t="str">
+        <f>VLOOKUP(E48,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="49">
@@ -25744,12 +25378,16 @@
         <v>1.0</v>
       </c>
       <c r="G49" s="2" t="str">
-        <f>VLOOKUP(E49,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E49,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Phallusia nigra</v>
       </c>
       <c r="H49" s="2" t="str">
-        <f>VLOOKUP(E49,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E49,lookups_invert!$A$2:$F$102,4,0)</f>
         <v>Tunicate</v>
+      </c>
+      <c r="I49" s="2" t="str">
+        <f>VLOOKUP(E49,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="50">
@@ -25772,12 +25410,16 @@
         <v>3.0</v>
       </c>
       <c r="G50" s="2" t="str">
-        <f>VLOOKUP(E50,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E50,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Siderastrea radians</v>
       </c>
       <c r="H50" s="2" t="str">
-        <f>VLOOKUP(E50,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>coral</v>
+        <f>VLOOKUP(E50,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I50" s="2" t="str">
+        <f>VLOOKUP(E50,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="51">
@@ -25800,12 +25442,16 @@
         <v>1.0</v>
       </c>
       <c r="G51" s="2" t="str">
-        <f>VLOOKUP(E51,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Strombus gigas</v>
+        <f>VLOOKUP(E51,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Aliger gigas</v>
       </c>
       <c r="H51" s="2" t="str">
-        <f>VLOOKUP(E51,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>conch</v>
+        <f>VLOOKUP(E51,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I51" s="2" t="str">
+        <f>VLOOKUP(E51,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="52">
@@ -25828,12 +25474,16 @@
         <v>32.0</v>
       </c>
       <c r="G52" s="2" t="str">
-        <f>VLOOKUP(E52,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>isognomon alatus</v>
+        <f>VLOOKUP(E52,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Isognomon alatus</v>
       </c>
       <c r="H52" s="2" t="str">
-        <f>VLOOKUP(E52,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>oyster</v>
+        <f>VLOOKUP(E52,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I52" s="2" t="str">
+        <f>VLOOKUP(E52,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="53">
@@ -25856,12 +25506,16 @@
         <v>11.0</v>
       </c>
       <c r="G53" s="2" t="str">
-        <f>VLOOKUP(E53,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Sabellastarte spp </v>
+        <f>VLOOKUP(E53,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Sabellastarte spp.</v>
       </c>
       <c r="H53" s="2" t="str">
-        <f>VLOOKUP(E53,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>worm</v>
+        <f>VLOOKUP(E53,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Worm</v>
+      </c>
+      <c r="I53" s="2" t="str">
+        <f>VLOOKUP(E53,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="54">
@@ -25884,12 +25538,16 @@
         <v>40.0</v>
       </c>
       <c r="G54" s="2" t="str">
-        <f>VLOOKUP(E54,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E54,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Phallusia nigra</v>
       </c>
       <c r="H54" s="2" t="str">
-        <f>VLOOKUP(E54,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E54,lookups_invert!$A$2:$F$102,4,0)</f>
         <v>Tunicate</v>
+      </c>
+      <c r="I54" s="2" t="str">
+        <f>VLOOKUP(E54,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="55">
@@ -25912,12 +25570,16 @@
         <v>17.0</v>
       </c>
       <c r="G55" s="2" t="str">
-        <f>VLOOKUP(E55,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E55,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Tedania ignis</v>
       </c>
       <c r="H55" s="2" t="str">
-        <f>VLOOKUP(E55,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E55,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I55" s="2" t="str">
+        <f>VLOOKUP(E55,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="56">
@@ -25940,12 +25602,16 @@
         <v>10.0</v>
       </c>
       <c r="G56" s="2" t="str">
-        <f>VLOOKUP(E56,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Halisarca spp</v>
+        <f>VLOOKUP(E56,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Halisarca spp.</v>
       </c>
       <c r="H56" s="2" t="str">
-        <f>VLOOKUP(E56,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E56,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I56" s="2" t="str">
+        <f>VLOOKUP(E56,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="57">
@@ -25968,12 +25634,16 @@
         <v>1.0</v>
       </c>
       <c r="G57" s="2" t="str">
-        <f>VLOOKUP(E57,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E57,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Thyroscyphus ramosus</v>
       </c>
       <c r="H57" s="2" t="str">
-        <f>VLOOKUP(E57,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>hydroid</v>
+        <f>VLOOKUP(E57,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Cnidarian</v>
+      </c>
+      <c r="I57" s="2" t="str">
+        <f>VLOOKUP(E57,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="58">
@@ -25996,12 +25666,16 @@
         <v>3.0</v>
       </c>
       <c r="G58" s="2" t="str">
-        <f>VLOOKUP(E58,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E58,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Cassiopea xamachana</v>
       </c>
       <c r="H58" s="2" t="str">
-        <f>VLOOKUP(E58,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>Jelly fish</v>
+        <f>VLOOKUP(E58,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Cnidarian</v>
+      </c>
+      <c r="I58" s="2" t="str">
+        <f>VLOOKUP(E58,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="59">
@@ -26024,12 +25698,16 @@
         <v>2.0</v>
       </c>
       <c r="G59" s="2" t="str">
-        <f>VLOOKUP(E59,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E59,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Actinoporus elegans</v>
       </c>
       <c r="H59" s="2" t="str">
-        <f>VLOOKUP(E59,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>anemone</v>
+        <f>VLOOKUP(E59,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Cnidarian</v>
+      </c>
+      <c r="I59" s="2" t="str">
+        <f>VLOOKUP(E59,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Carnivores</v>
       </c>
     </row>
     <row r="60">
@@ -26052,12 +25730,16 @@
         <v>1.0</v>
       </c>
       <c r="G60" s="2" t="str">
-        <f>VLOOKUP(E60,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E60,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Siderastrea radians</v>
       </c>
       <c r="H60" s="2" t="str">
-        <f>VLOOKUP(E60,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>coral</v>
+        <f>VLOOKUP(E60,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I60" s="2" t="str">
+        <f>VLOOKUP(E60,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="61">
@@ -26080,12 +25762,16 @@
         <v>5.0</v>
       </c>
       <c r="G61" s="2" t="str">
-        <f>VLOOKUP(E61,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E61,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Tedania ignis</v>
       </c>
       <c r="H61" s="2" t="str">
-        <f>VLOOKUP(E61,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E61,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I61" s="2" t="str">
+        <f>VLOOKUP(E61,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="62">
@@ -26108,12 +25794,16 @@
         <v>11.0</v>
       </c>
       <c r="G62" s="2" t="str">
-        <f>VLOOKUP(E62,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>isognomon alatus</v>
+        <f>VLOOKUP(E62,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Isognomon alatus</v>
       </c>
       <c r="H62" s="2" t="str">
-        <f>VLOOKUP(E62,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>oyster</v>
+        <f>VLOOKUP(E62,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I62" s="2" t="str">
+        <f>VLOOKUP(E62,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="63">
@@ -26136,12 +25826,16 @@
         <v>2.0</v>
       </c>
       <c r="G63" s="2" t="str">
-        <f>VLOOKUP(E63,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E63,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Dendostrea frons</v>
       </c>
       <c r="H63" s="2" t="str">
-        <f>VLOOKUP(E63,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>oyster</v>
+        <f>VLOOKUP(E63,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I63" s="2" t="str">
+        <f>VLOOKUP(E63,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="64">
@@ -26164,12 +25858,16 @@
         <v>5.0</v>
       </c>
       <c r="G64" s="2" t="str">
-        <f>VLOOKUP(E64,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E64,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Phallusia nigra</v>
       </c>
       <c r="H64" s="2" t="str">
-        <f>VLOOKUP(E64,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E64,lookups_invert!$A$2:$F$102,4,0)</f>
         <v>Tunicate</v>
+      </c>
+      <c r="I64" s="2" t="str">
+        <f>VLOOKUP(E64,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="65">
@@ -26192,12 +25890,16 @@
         <v>3.0</v>
       </c>
       <c r="G65" s="2" t="str">
-        <f>VLOOKUP(E65,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Sabellastarte spp </v>
+        <f>VLOOKUP(E65,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Sabellastarte spp.</v>
       </c>
       <c r="H65" s="2" t="str">
-        <f>VLOOKUP(E65,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>worm</v>
+        <f>VLOOKUP(E65,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Worm</v>
+      </c>
+      <c r="I65" s="2" t="str">
+        <f>VLOOKUP(E65,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="66">
@@ -26220,12 +25922,16 @@
         <v>2.0</v>
       </c>
       <c r="G66" s="2" t="str">
-        <f>VLOOKUP(E66,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Halisarca spp</v>
+        <f>VLOOKUP(E66,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Halisarca spp.</v>
       </c>
       <c r="H66" s="2" t="str">
-        <f>VLOOKUP(E66,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E66,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I66" s="2" t="str">
+        <f>VLOOKUP(E66,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="67">
@@ -26248,12 +25954,16 @@
         <v>1.0</v>
       </c>
       <c r="G67" s="2" t="str">
-        <f>VLOOKUP(E67,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Strombus gigas</v>
+        <f>VLOOKUP(E67,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Aliger gigas</v>
       </c>
       <c r="H67" s="2" t="str">
-        <f>VLOOKUP(E67,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>conch</v>
+        <f>VLOOKUP(E67,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I67" s="2" t="str">
+        <f>VLOOKUP(E67,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="68">
@@ -26276,12 +25986,16 @@
         <v>46.0</v>
       </c>
       <c r="G68" s="2" t="str">
-        <f>VLOOKUP(E68,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E68,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Ecteinascidia turbinata</v>
       </c>
       <c r="H68" s="2" t="str">
-        <f>VLOOKUP(E68,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>tunicate</v>
+        <f>VLOOKUP(E68,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Tunicate</v>
+      </c>
+      <c r="I68" s="2" t="str">
+        <f>VLOOKUP(E68,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="69">
@@ -26304,12 +26018,16 @@
         <v>34.0</v>
       </c>
       <c r="G69" s="2" t="str">
-        <f>VLOOKUP(E69,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E69,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Tedania ignis</v>
       </c>
       <c r="H69" s="2" t="str">
-        <f>VLOOKUP(E69,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E69,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I69" s="2" t="str">
+        <f>VLOOKUP(E69,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="70">
@@ -26332,12 +26050,16 @@
         <v>2.0</v>
       </c>
       <c r="G70" s="2" t="str">
-        <f>VLOOKUP(E70,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>isognomon alatus</v>
+        <f>VLOOKUP(E70,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Isognomon alatus</v>
       </c>
       <c r="H70" s="2" t="str">
-        <f>VLOOKUP(E70,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>oyster</v>
+        <f>VLOOKUP(E70,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I70" s="2" t="str">
+        <f>VLOOKUP(E70,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="71">
@@ -26360,12 +26082,16 @@
         <v>8.0</v>
       </c>
       <c r="G71" s="2" t="str">
-        <f>VLOOKUP(E71,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E71,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Phallusia nigra</v>
       </c>
       <c r="H71" s="2" t="str">
-        <f>VLOOKUP(E71,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E71,lookups_invert!$A$2:$F$102,4,0)</f>
         <v>Tunicate</v>
+      </c>
+      <c r="I71" s="2" t="str">
+        <f>VLOOKUP(E71,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="72">
@@ -26388,12 +26114,16 @@
         <v>1.0</v>
       </c>
       <c r="G72" s="2" t="str">
-        <f>VLOOKUP(E72,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E72,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Botrylloides nigrum</v>
       </c>
       <c r="H72" s="2" t="str">
-        <f>VLOOKUP(E72,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E72,lookups_invert!$A$2:$F$102,4,0)</f>
         <v>Tunicate</v>
+      </c>
+      <c r="I72" s="2" t="str">
+        <f>VLOOKUP(E72,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="73">
@@ -26416,12 +26146,16 @@
         <v>1.0</v>
       </c>
       <c r="G73" s="2" t="str">
-        <f>VLOOKUP(E73,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E73,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Dendostrea frons</v>
       </c>
       <c r="H73" s="2" t="str">
-        <f>VLOOKUP(E73,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>oyster</v>
+        <f>VLOOKUP(E73,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I73" s="2" t="str">
+        <f>VLOOKUP(E73,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="74">
@@ -26444,12 +26178,16 @@
         <v>1.0</v>
       </c>
       <c r="G74" s="2" t="str">
-        <f>VLOOKUP(E74,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Porites asteroides</v>
+        <f>VLOOKUP(E74,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Porites astreoides</v>
       </c>
       <c r="H74" s="2" t="str">
-        <f>VLOOKUP(E74,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>Coral</v>
+        <f>VLOOKUP(E74,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I74" s="2" t="str">
+        <f>VLOOKUP(E74,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="75">
@@ -26472,12 +26210,16 @@
         <v>2.0</v>
       </c>
       <c r="G75" s="2" t="str">
-        <f>VLOOKUP(E75,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Halisarca spp</v>
+        <f>VLOOKUP(E75,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Halisarca spp.</v>
       </c>
       <c r="H75" s="2" t="str">
-        <f>VLOOKUP(E75,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E75,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I75" s="2" t="str">
+        <f>VLOOKUP(E75,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="76">
@@ -26500,12 +26242,16 @@
         <v>3.0</v>
       </c>
       <c r="G76" s="2" t="str">
-        <f>VLOOKUP(E76,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E76,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Macrodactyla doreensis</v>
       </c>
       <c r="H76" s="2" t="str">
-        <f>VLOOKUP(E76,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>Coral</v>
+        <f>VLOOKUP(E76,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I76" s="2" t="str">
+        <f>VLOOKUP(E76,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="77">
@@ -26528,12 +26274,16 @@
         <v>1.0</v>
       </c>
       <c r="G77" s="2" t="str">
-        <f>VLOOKUP(E77,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E77,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Eupolymnia crassicornis</v>
       </c>
       <c r="H77" s="2" t="str">
-        <f>VLOOKUP(E77,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>worm</v>
+        <f>VLOOKUP(E77,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Worm</v>
+      </c>
+      <c r="I77" s="2" t="str">
+        <f>VLOOKUP(E77,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="78">
@@ -26556,12 +26306,16 @@
         <v>7.0</v>
       </c>
       <c r="G78" s="2" t="str">
-        <f>VLOOKUP(E78,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E78,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Siderastrea radians</v>
       </c>
       <c r="H78" s="2" t="str">
-        <f>VLOOKUP(E78,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>coral</v>
+        <f>VLOOKUP(E78,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I78" s="2" t="str">
+        <f>VLOOKUP(E78,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="79">
@@ -26584,12 +26338,16 @@
         <v>3.0</v>
       </c>
       <c r="G79" s="2" t="str">
-        <f>VLOOKUP(E79,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Zooanthid spp</v>
+        <f>VLOOKUP(E79,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Zooanthid spp.</v>
       </c>
       <c r="H79" s="2" t="str">
-        <f>VLOOKUP(E79,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>Zooanthid</v>
+        <f>VLOOKUP(E79,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Cnidarian</v>
+      </c>
+      <c r="I79" s="2" t="str">
+        <f>VLOOKUP(E79,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="80">
@@ -26612,12 +26370,16 @@
         <v>9.0</v>
       </c>
       <c r="G80" s="2" t="str">
-        <f>VLOOKUP(E80,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E80,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Tedania ignis</v>
       </c>
       <c r="H80" s="2" t="str">
-        <f>VLOOKUP(E80,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E80,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I80" s="2" t="str">
+        <f>VLOOKUP(E80,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="81">
@@ -26640,12 +26402,16 @@
         <v>3.0</v>
       </c>
       <c r="G81" s="2" t="str">
-        <f>VLOOKUP(E81,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>haliclona spp.</v>
+        <f>VLOOKUP(E81,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Haliclona spp.</v>
       </c>
       <c r="H81" s="2" t="str">
-        <f>VLOOKUP(E81,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E81,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I81" s="2" t="str">
+        <f>VLOOKUP(E81,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="82">
@@ -26668,12 +26434,16 @@
         <v>5.0</v>
       </c>
       <c r="G82" s="2" t="str">
-        <f>VLOOKUP(E82,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Halisarca spp</v>
+        <f>VLOOKUP(E82,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Halisarca spp.</v>
       </c>
       <c r="H82" s="2" t="str">
-        <f>VLOOKUP(E82,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E82,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I82" s="2" t="str">
+        <f>VLOOKUP(E82,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="83">
@@ -26696,12 +26466,16 @@
         <v>5.0</v>
       </c>
       <c r="G83" s="2" t="str">
-        <f>VLOOKUP(E83,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>haliclona spp.</v>
+        <f>VLOOKUP(E83,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Haliclona spp.</v>
       </c>
       <c r="H83" s="2" t="str">
-        <f>VLOOKUP(E83,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E83,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I83" s="2" t="str">
+        <f>VLOOKUP(E83,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="84">
@@ -26724,12 +26498,16 @@
         <v>1.0</v>
       </c>
       <c r="G84" s="2" t="str">
-        <f>VLOOKUP(E84,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Porites asteroides</v>
+        <f>VLOOKUP(E84,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Porites astreoides</v>
       </c>
       <c r="H84" s="2" t="str">
-        <f>VLOOKUP(E84,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>Coral</v>
+        <f>VLOOKUP(E84,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I84" s="2" t="str">
+        <f>VLOOKUP(E84,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="85">
@@ -26752,12 +26530,16 @@
         <v>6.0</v>
       </c>
       <c r="G85" s="2" t="str">
-        <f>VLOOKUP(E85,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Sabellastarte spp </v>
+        <f>VLOOKUP(E85,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Sabellastarte spp.</v>
       </c>
       <c r="H85" s="2" t="str">
-        <f>VLOOKUP(E85,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>worm</v>
+        <f>VLOOKUP(E85,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Worm</v>
+      </c>
+      <c r="I85" s="2" t="str">
+        <f>VLOOKUP(E85,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="86">
@@ -26780,12 +26562,16 @@
         <v>6.0</v>
       </c>
       <c r="G86" s="2" t="str">
-        <f>VLOOKUP(E86,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E86,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Porites furcata</v>
       </c>
       <c r="H86" s="2" t="str">
-        <f>VLOOKUP(E86,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>Coral</v>
+        <f>VLOOKUP(E86,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I86" s="2" t="str">
+        <f>VLOOKUP(E86,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="87">
@@ -26808,12 +26594,16 @@
         <v>2.0</v>
       </c>
       <c r="G87" s="2" t="str">
-        <f>VLOOKUP(E87,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E87,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Phallusia nigra</v>
       </c>
       <c r="H87" s="2" t="str">
-        <f>VLOOKUP(E87,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E87,lookups_invert!$A$2:$F$102,4,0)</f>
         <v>Tunicate</v>
+      </c>
+      <c r="I87" s="2" t="str">
+        <f>VLOOKUP(E87,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="88">
@@ -26836,12 +26626,16 @@
         <v>1.0</v>
       </c>
       <c r="G88" s="2" t="str">
-        <f>VLOOKUP(E88,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E88,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Isostichopus badionotus</v>
       </c>
       <c r="H88" s="2" t="str">
-        <f>VLOOKUP(E88,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sea cucumber</v>
+        <f>VLOOKUP(E88,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Echinoderm</v>
+      </c>
+      <c r="I88" s="2" t="str">
+        <f>VLOOKUP(E88,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Detrivores</v>
       </c>
     </row>
     <row r="89">
@@ -26864,12 +26658,16 @@
         <v>4.0</v>
       </c>
       <c r="G89" s="2" t="str">
-        <f>VLOOKUP(E89,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E89,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Agaricia agaricites</v>
       </c>
       <c r="H89" s="2" t="str">
-        <f>VLOOKUP(E89,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>Coral</v>
+        <f>VLOOKUP(E89,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I89" s="2" t="str">
+        <f>VLOOKUP(E89,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="90">
@@ -26892,12 +26690,16 @@
         <v>9.0</v>
       </c>
       <c r="G90" s="2" t="str">
-        <f>VLOOKUP(E90,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>isognomon alatus</v>
+        <f>VLOOKUP(E90,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Isognomon alatus</v>
       </c>
       <c r="H90" s="2" t="str">
-        <f>VLOOKUP(E90,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>oyster</v>
+        <f>VLOOKUP(E90,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I90" s="2" t="str">
+        <f>VLOOKUP(E90,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="91">
@@ -26920,12 +26722,16 @@
         <v>38.0</v>
       </c>
       <c r="G91" s="2" t="str">
-        <f>VLOOKUP(E91,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E91,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Tedania ignis</v>
       </c>
       <c r="H91" s="2" t="str">
-        <f>VLOOKUP(E91,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E91,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I91" s="2" t="str">
+        <f>VLOOKUP(E91,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="92">
@@ -26948,12 +26754,16 @@
         <v>1.0</v>
       </c>
       <c r="G92" s="2" t="str">
-        <f>VLOOKUP(E92,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Halisarca spp</v>
+        <f>VLOOKUP(E92,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Halisarca spp.</v>
       </c>
       <c r="H92" s="2" t="str">
-        <f>VLOOKUP(E92,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E92,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I92" s="2" t="str">
+        <f>VLOOKUP(E92,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="93">
@@ -26976,12 +26786,16 @@
         <v>1.0</v>
       </c>
       <c r="G93" s="2" t="str">
-        <f>VLOOKUP(E93,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E93,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Dysidea etheria</v>
       </c>
       <c r="H93" s="2" t="str">
-        <f>VLOOKUP(E93,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E93,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I93" s="2" t="str">
+        <f>VLOOKUP(E93,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="94">
@@ -27004,12 +26818,16 @@
         <v>8.0</v>
       </c>
       <c r="G94" s="2" t="str">
-        <f>VLOOKUP(E94,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E94,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Scopalina ruetzleri</v>
       </c>
       <c r="H94" s="2" t="str">
-        <f>VLOOKUP(E94,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E94,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I94" s="2" t="str">
+        <f>VLOOKUP(E94,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="95">
@@ -27032,12 +26850,16 @@
         <v>3.0</v>
       </c>
       <c r="G95" s="2" t="str">
-        <f>VLOOKUP(E95,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Gorgonian spp</v>
+        <f>VLOOKUP(E95,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Gorgonian spp.</v>
       </c>
       <c r="H95" s="2" t="str">
-        <f>VLOOKUP(E95,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E95,lookups_invert!$A$2:$F$102,4,0)</f>
         <v>Soft coral</v>
+      </c>
+      <c r="I95" s="2" t="str">
+        <f>VLOOKUP(E95,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="96">
@@ -27060,12 +26882,16 @@
         <v>4.0</v>
       </c>
       <c r="G96" s="2" t="str">
-        <f>VLOOKUP(E96,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Porites asteroides</v>
+        <f>VLOOKUP(E96,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Porites astreoides</v>
       </c>
       <c r="H96" s="2" t="str">
-        <f>VLOOKUP(E96,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>Coral</v>
+        <f>VLOOKUP(E96,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I96" s="2" t="str">
+        <f>VLOOKUP(E96,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="97">
@@ -27088,12 +26914,16 @@
         <v>2.0</v>
       </c>
       <c r="G97" s="2" t="str">
-        <f>VLOOKUP(E97,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E97,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Siderastrea radians</v>
       </c>
       <c r="H97" s="2" t="str">
-        <f>VLOOKUP(E97,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>coral</v>
+        <f>VLOOKUP(E97,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I97" s="2" t="str">
+        <f>VLOOKUP(E97,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="98">
@@ -27116,12 +26946,16 @@
         <v>2.0</v>
       </c>
       <c r="G98" s="2" t="str">
-        <f>VLOOKUP(E98,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E98,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Dendostrea frons</v>
       </c>
       <c r="H98" s="2" t="str">
-        <f>VLOOKUP(E98,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>oyster</v>
+        <f>VLOOKUP(E98,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I98" s="2" t="str">
+        <f>VLOOKUP(E98,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="99">
@@ -27144,12 +26978,16 @@
         <v>5.0</v>
       </c>
       <c r="G99" s="2" t="str">
-        <f>VLOOKUP(E99,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E99,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Eupolymnia crassicornis</v>
       </c>
       <c r="H99" s="2" t="str">
-        <f>VLOOKUP(E99,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>worm</v>
+        <f>VLOOKUP(E99,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Worm</v>
+      </c>
+      <c r="I99" s="2" t="str">
+        <f>VLOOKUP(E99,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="100">
@@ -27172,12 +27010,16 @@
         <v>3.0</v>
       </c>
       <c r="G100" s="2" t="str">
-        <f>VLOOKUP(E100,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>haliclona spp.</v>
+        <f>VLOOKUP(E100,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Haliclona spp.</v>
       </c>
       <c r="H100" s="2" t="str">
-        <f>VLOOKUP(E100,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E100,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I100" s="2" t="str">
+        <f>VLOOKUP(E100,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="101">
@@ -27200,12 +27042,16 @@
         <v>1.0</v>
       </c>
       <c r="G101" s="2" t="str">
-        <f>VLOOKUP(E101,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Halisarca spp</v>
+        <f>VLOOKUP(E101,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Halisarca spp.</v>
       </c>
       <c r="H101" s="2" t="str">
-        <f>VLOOKUP(E101,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E101,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I101" s="2" t="str">
+        <f>VLOOKUP(E101,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="102">
@@ -27228,12 +27074,16 @@
         <v>19.0</v>
       </c>
       <c r="G102" s="2" t="str">
-        <f>VLOOKUP(E102,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Sabellastarte spp </v>
+        <f>VLOOKUP(E102,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Sabellastarte spp.</v>
       </c>
       <c r="H102" s="2" t="str">
-        <f>VLOOKUP(E102,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>worm</v>
+        <f>VLOOKUP(E102,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Worm</v>
+      </c>
+      <c r="I102" s="2" t="str">
+        <f>VLOOKUP(E102,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="103">
@@ -27256,12 +27106,16 @@
         <v>14.0</v>
       </c>
       <c r="G103" s="2" t="str">
-        <f>VLOOKUP(E103,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E103,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Tedania ignis</v>
       </c>
       <c r="H103" s="2" t="str">
-        <f>VLOOKUP(E103,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E103,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I103" s="2" t="str">
+        <f>VLOOKUP(E103,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="104">
@@ -27284,12 +27138,16 @@
         <v>7.0</v>
       </c>
       <c r="G104" s="2" t="str">
-        <f>VLOOKUP(E104,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E104,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Dendostrea frons</v>
       </c>
       <c r="H104" s="2" t="str">
-        <f>VLOOKUP(E104,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>oyster</v>
+        <f>VLOOKUP(E104,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I104" s="2" t="str">
+        <f>VLOOKUP(E104,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="105">
@@ -27312,12 +27170,16 @@
         <v>5.0</v>
       </c>
       <c r="G105" s="2" t="str">
-        <f>VLOOKUP(E105,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>isognomon alatus</v>
+        <f>VLOOKUP(E105,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Isognomon alatus</v>
       </c>
       <c r="H105" s="2" t="str">
-        <f>VLOOKUP(E105,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>oyster</v>
+        <f>VLOOKUP(E105,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I105" s="2" t="str">
+        <f>VLOOKUP(E105,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="106">
@@ -27340,12 +27202,16 @@
         <v>5.0</v>
       </c>
       <c r="G106" s="2" t="str">
-        <f>VLOOKUP(E106,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Strombus gigas</v>
+        <f>VLOOKUP(E106,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Aliger gigas</v>
       </c>
       <c r="H106" s="2" t="str">
-        <f>VLOOKUP(E106,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>conch</v>
+        <f>VLOOKUP(E106,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I106" s="2" t="str">
+        <f>VLOOKUP(E106,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="107">
@@ -27368,12 +27234,16 @@
         <v>4.0</v>
       </c>
       <c r="G107" s="2" t="str">
-        <f>VLOOKUP(E107,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E107,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Dysidea etheria</v>
       </c>
       <c r="H107" s="2" t="str">
-        <f>VLOOKUP(E107,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E107,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I107" s="2" t="str">
+        <f>VLOOKUP(E107,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="108">
@@ -27396,12 +27266,16 @@
         <v>2.0</v>
       </c>
       <c r="G108" s="2" t="str">
-        <f>VLOOKUP(E108,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E108,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Ecteinascidia turbinata</v>
       </c>
       <c r="H108" s="2" t="str">
-        <f>VLOOKUP(E108,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>tunicate</v>
+        <f>VLOOKUP(E108,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Tunicate</v>
+      </c>
+      <c r="I108" s="2" t="str">
+        <f>VLOOKUP(E108,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="109">
@@ -27424,12 +27298,16 @@
         <v>11.0</v>
       </c>
       <c r="G109" s="2" t="str">
-        <f>VLOOKUP(E109,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E109,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Phallusia nigra</v>
       </c>
       <c r="H109" s="2" t="str">
-        <f>VLOOKUP(E109,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E109,lookups_invert!$A$2:$F$102,4,0)</f>
         <v>Tunicate</v>
+      </c>
+      <c r="I109" s="2" t="str">
+        <f>VLOOKUP(E109,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="110">
@@ -27452,12 +27330,16 @@
         <v>2.0</v>
       </c>
       <c r="G110" s="2" t="str">
-        <f>VLOOKUP(E110,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E110,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Agaricia agaricites</v>
       </c>
       <c r="H110" s="2" t="str">
-        <f>VLOOKUP(E110,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>Coral</v>
+        <f>VLOOKUP(E110,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I110" s="2" t="str">
+        <f>VLOOKUP(E110,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="111">
@@ -27480,12 +27362,16 @@
         <v>5.0</v>
       </c>
       <c r="G111" s="2" t="str">
-        <f>VLOOKUP(E111,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Unknown oyster spp</v>
+        <f>VLOOKUP(E111,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Unknown oyster spp.</v>
       </c>
       <c r="H111" s="2" t="str">
-        <f>VLOOKUP(E111,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>Oyster</v>
+        <f>VLOOKUP(E111,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I111" s="2" t="str">
+        <f>VLOOKUP(E111,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="112">
@@ -27508,12 +27394,16 @@
         <v>1.0</v>
       </c>
       <c r="G112" s="2" t="str">
-        <f>VLOOKUP(E112,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E112,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Porites divaricata</v>
       </c>
       <c r="H112" s="2" t="str">
-        <f>VLOOKUP(E112,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>Coral</v>
+        <f>VLOOKUP(E112,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I112" s="2" t="str">
+        <f>VLOOKUP(E112,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="113">
@@ -27536,12 +27426,16 @@
         <v>1.0</v>
       </c>
       <c r="G113" s="2" t="str">
-        <f>VLOOKUP(E113,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>niphates amorpha</v>
+        <f>VLOOKUP(E113,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Niphates amorpha</v>
       </c>
       <c r="H113" s="2" t="str">
-        <f>VLOOKUP(E113,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E113,lookups_invert!$A$2:$F$102,4,0)</f>
         <v>Sponge</v>
+      </c>
+      <c r="I113" s="2" t="str">
+        <f>VLOOKUP(E113,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="114">
@@ -27564,12 +27458,16 @@
         <v>12.0</v>
       </c>
       <c r="G114" s="2" t="str">
-        <f>VLOOKUP(E114,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E114,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Porites furcata</v>
       </c>
       <c r="H114" s="2" t="str">
-        <f>VLOOKUP(E114,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>Coral</v>
+        <f>VLOOKUP(E114,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I114" s="2" t="str">
+        <f>VLOOKUP(E114,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="115">
@@ -27592,12 +27490,16 @@
         <v>2.0</v>
       </c>
       <c r="G115" s="2" t="str">
-        <f>VLOOKUP(E115,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E115,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Macrodactyla doreensis</v>
       </c>
       <c r="H115" s="2" t="str">
-        <f>VLOOKUP(E115,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>Coral</v>
+        <f>VLOOKUP(E115,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I115" s="2" t="str">
+        <f>VLOOKUP(E115,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="116">
@@ -27620,12 +27522,16 @@
         <v>1.0</v>
       </c>
       <c r="G116" s="2" t="str">
-        <f>VLOOKUP(E116,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E116,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Siderastrea siderea</v>
       </c>
       <c r="H116" s="2" t="str">
-        <f>VLOOKUP(E116,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>coral</v>
+        <f>VLOOKUP(E116,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I116" s="2" t="str">
+        <f>VLOOKUP(E116,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="117">
@@ -27648,12 +27554,16 @@
         <v>1.0</v>
       </c>
       <c r="G117" s="2" t="str">
-        <f>VLOOKUP(E117,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E117,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Porites faveolata</v>
       </c>
       <c r="H117" s="2" t="str">
-        <f>VLOOKUP(E117,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>coral</v>
+        <f>VLOOKUP(E117,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I117" s="2" t="str">
+        <f>VLOOKUP(E117,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="118">
@@ -27676,12 +27586,16 @@
         <v>3.0</v>
       </c>
       <c r="G118" s="2" t="str">
-        <f>VLOOKUP(E118,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Halisarca spp</v>
+        <f>VLOOKUP(E118,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Halisarca spp.</v>
       </c>
       <c r="H118" s="2" t="str">
-        <f>VLOOKUP(E118,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E118,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I118" s="2" t="str">
+        <f>VLOOKUP(E118,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="119">
@@ -27704,12 +27618,16 @@
         <v>6.0</v>
       </c>
       <c r="G119" s="2" t="str">
-        <f>VLOOKUP(E119,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E119,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Siderastrea radians</v>
       </c>
       <c r="H119" s="2" t="str">
-        <f>VLOOKUP(E119,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>coral</v>
+        <f>VLOOKUP(E119,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I119" s="2" t="str">
+        <f>VLOOKUP(E119,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="120">
@@ -27732,12 +27650,16 @@
         <v>1.0</v>
       </c>
       <c r="G120" s="2" t="str">
-        <f>VLOOKUP(E120,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E120,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Gonodactylus curacaoensis</v>
       </c>
       <c r="H120" s="2" t="str">
-        <f>VLOOKUP(E120,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>Shrimp</v>
+        <f>VLOOKUP(E120,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Crustacean</v>
+      </c>
+      <c r="I120" s="2" t="str">
+        <f>VLOOKUP(E120,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Carnivores</v>
       </c>
     </row>
     <row r="121">
@@ -27760,12 +27682,16 @@
         <v>2.0</v>
       </c>
       <c r="G121" s="2" t="str">
-        <f>VLOOKUP(E121,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E121,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Porites porites</v>
       </c>
       <c r="H121" s="2" t="str">
-        <f>VLOOKUP(E121,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>coral</v>
+        <f>VLOOKUP(E121,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I121" s="2" t="str">
+        <f>VLOOKUP(E121,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="122">
@@ -27788,12 +27714,16 @@
         <v>44.0</v>
       </c>
       <c r="G122" s="2" t="str">
-        <f>VLOOKUP(E122,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E122,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Tedania ignis</v>
       </c>
       <c r="H122" s="2" t="str">
-        <f>VLOOKUP(E122,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E122,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I122" s="2" t="str">
+        <f>VLOOKUP(E122,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="123">
@@ -27816,12 +27746,16 @@
         <v>12.0</v>
       </c>
       <c r="G123" s="2" t="str">
-        <f>VLOOKUP(E123,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Sabellastarte spp </v>
+        <f>VLOOKUP(E123,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Sabellastarte spp.</v>
       </c>
       <c r="H123" s="2" t="str">
-        <f>VLOOKUP(E123,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>worm</v>
+        <f>VLOOKUP(E123,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Worm</v>
+      </c>
+      <c r="I123" s="2" t="str">
+        <f>VLOOKUP(E123,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="124">
@@ -27844,12 +27778,16 @@
         <v>4.0</v>
       </c>
       <c r="G124" s="2" t="str">
-        <f>VLOOKUP(E124,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>isognomon alatus</v>
+        <f>VLOOKUP(E124,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Isognomon alatus</v>
       </c>
       <c r="H124" s="2" t="str">
-        <f>VLOOKUP(E124,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>oyster</v>
+        <f>VLOOKUP(E124,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I124" s="2" t="str">
+        <f>VLOOKUP(E124,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="125">
@@ -27872,12 +27810,16 @@
         <v>11.0</v>
       </c>
       <c r="G125" s="2" t="str">
-        <f>VLOOKUP(E125,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Halisarca spp</v>
+        <f>VLOOKUP(E125,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Halisarca spp.</v>
       </c>
       <c r="H125" s="2" t="str">
-        <f>VLOOKUP(E125,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E125,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I125" s="2" t="str">
+        <f>VLOOKUP(E125,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="126">
@@ -27900,12 +27842,16 @@
         <v>5.0</v>
       </c>
       <c r="G126" s="2" t="str">
-        <f>VLOOKUP(E126,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E126,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Dendostrea frons</v>
       </c>
       <c r="H126" s="2" t="str">
-        <f>VLOOKUP(E126,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>oyster</v>
+        <f>VLOOKUP(E126,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I126" s="2" t="str">
+        <f>VLOOKUP(E126,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="127">
@@ -27928,12 +27874,16 @@
         <v>9.0</v>
       </c>
       <c r="G127" s="2" t="str">
-        <f>VLOOKUP(E127,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E127,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Phallusia nigra</v>
       </c>
       <c r="H127" s="2" t="str">
-        <f>VLOOKUP(E127,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E127,lookups_invert!$A$2:$F$102,4,0)</f>
         <v>Tunicate</v>
+      </c>
+      <c r="I127" s="2" t="str">
+        <f>VLOOKUP(E127,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="128">
@@ -27956,12 +27906,16 @@
         <v>2.0</v>
       </c>
       <c r="G128" s="2" t="str">
-        <f>VLOOKUP(E128,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Porites asteroides</v>
+        <f>VLOOKUP(E128,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Porites astreoides</v>
       </c>
       <c r="H128" s="2" t="str">
-        <f>VLOOKUP(E128,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>Coral</v>
+        <f>VLOOKUP(E128,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Stony coral</v>
+      </c>
+      <c r="I128" s="2" t="str">
+        <f>VLOOKUP(E128,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Mixotrophs</v>
       </c>
     </row>
     <row r="129">
@@ -27984,12 +27938,16 @@
         <v>6.0</v>
       </c>
       <c r="G129" s="2" t="str">
-        <f>VLOOKUP(E129,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E129,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Dysidea etheria</v>
       </c>
       <c r="H129" s="2" t="str">
-        <f>VLOOKUP(E129,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E129,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I129" s="2" t="str">
+        <f>VLOOKUP(E129,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="130">
@@ -28012,12 +27970,16 @@
         <v>2.0</v>
       </c>
       <c r="G130" s="2" t="str">
-        <f>VLOOKUP(E130,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Unknown oyster spp</v>
+        <f>VLOOKUP(E130,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Unknown oyster spp.</v>
       </c>
       <c r="H130" s="2" t="str">
-        <f>VLOOKUP(E130,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>Oyster</v>
+        <f>VLOOKUP(E130,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I130" s="2" t="str">
+        <f>VLOOKUP(E130,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="131">
@@ -28040,12 +28002,16 @@
         <v>1.0</v>
       </c>
       <c r="G131" s="2" t="str">
-        <f>VLOOKUP(E131,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E131,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Isostichopus badionotus</v>
       </c>
       <c r="H131" s="2" t="str">
-        <f>VLOOKUP(E131,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sea cucumber</v>
+        <f>VLOOKUP(E131,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Echinoderm</v>
+      </c>
+      <c r="I131" s="2" t="str">
+        <f>VLOOKUP(E131,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Detrivores</v>
       </c>
     </row>
     <row r="132">
@@ -28068,12 +28034,16 @@
         <v>1.0</v>
       </c>
       <c r="G132" s="2" t="str">
-        <f>VLOOKUP(E132,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>niphates amorpha</v>
+        <f>VLOOKUP(E132,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Niphates amorpha</v>
       </c>
       <c r="H132" s="2" t="str">
-        <f>VLOOKUP(E132,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E132,lookups_invert!$A$2:$F$102,4,0)</f>
         <v>Sponge</v>
+      </c>
+      <c r="I132" s="2" t="str">
+        <f>VLOOKUP(E132,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="133">
@@ -28096,12 +28066,16 @@
         <v>39.0</v>
       </c>
       <c r="G133" s="2" t="str">
-        <f>VLOOKUP(E133,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E133,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Tedania ignis</v>
       </c>
       <c r="H133" s="2" t="str">
-        <f>VLOOKUP(E133,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E133,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I133" s="2" t="str">
+        <f>VLOOKUP(E133,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="134">
@@ -28124,12 +28098,16 @@
         <v>1.0</v>
       </c>
       <c r="G134" s="2" t="str">
-        <f>VLOOKUP(E134,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E134,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Scopalina ruetzleri</v>
       </c>
       <c r="H134" s="2" t="str">
-        <f>VLOOKUP(E134,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E134,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I134" s="2" t="str">
+        <f>VLOOKUP(E134,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="135">
@@ -28152,12 +28130,16 @@
         <v>1.0</v>
       </c>
       <c r="G135" s="2" t="str">
-        <f>VLOOKUP(E135,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E135,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Phallusia nigra</v>
       </c>
       <c r="H135" s="2" t="str">
-        <f>VLOOKUP(E135,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E135,lookups_invert!$A$2:$F$102,4,0)</f>
         <v>Tunicate</v>
+      </c>
+      <c r="I135" s="2" t="str">
+        <f>VLOOKUP(E135,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="136">
@@ -28180,12 +28162,16 @@
         <v>2.0</v>
       </c>
       <c r="G136" s="2" t="str">
-        <f>VLOOKUP(E136,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E136,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Dysidea etheria</v>
       </c>
       <c r="H136" s="2" t="str">
-        <f>VLOOKUP(E136,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E136,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I136" s="2" t="str">
+        <f>VLOOKUP(E136,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="137">
@@ -28208,12 +28194,16 @@
         <v>1.0</v>
       </c>
       <c r="G137" s="2" t="str">
-        <f>VLOOKUP(E137,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E137,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Dendostrea frons</v>
       </c>
       <c r="H137" s="2" t="str">
-        <f>VLOOKUP(E137,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>oyster</v>
+        <f>VLOOKUP(E137,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Mollusk</v>
+      </c>
+      <c r="I137" s="2" t="str">
+        <f>VLOOKUP(E137,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="138">
@@ -28236,12 +28226,16 @@
         <v>1.0</v>
       </c>
       <c r="G138" s="2" t="str">
-        <f>VLOOKUP(E138,lookups_invert!$A$2:$E$102,2,0)</f>
-        <v>Halisarca spp</v>
+        <f>VLOOKUP(E138,lookups_invert!$A$2:$F$102,2,0)</f>
+        <v>Halisarca spp.</v>
       </c>
       <c r="H138" s="2" t="str">
-        <f>VLOOKUP(E138,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>sponge</v>
+        <f>VLOOKUP(E138,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Sponge</v>
+      </c>
+      <c r="I138" s="2" t="str">
+        <f>VLOOKUP(E138,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="139">
@@ -28264,201 +28258,281 @@
         <v>1.0</v>
       </c>
       <c r="G139" s="2" t="str">
-        <f>VLOOKUP(E139,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E139,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>Ecteinascidia turbinata</v>
       </c>
       <c r="H139" s="2" t="str">
-        <f>VLOOKUP(E139,lookups_invert!$A$2:$E$102,4,0)</f>
-        <v>tunicate</v>
+        <f>VLOOKUP(E139,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>Tunicate</v>
+      </c>
+      <c r="I139" s="2" t="str">
+        <f>VLOOKUP(E139,lookups_invert!$A$2:$F$102,5,0)</f>
+        <v>Filter &amp; suspension feeders</v>
       </c>
     </row>
     <row r="140">
       <c r="G140" s="2" t="str">
-        <f>VLOOKUP(E140,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E140,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H140" s="2" t="str">
-        <f>VLOOKUP(E140,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E140,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I140" s="2" t="str">
+        <f>VLOOKUP(E140,lookups_invert!$A$2:$F$102,5,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="141">
       <c r="G141" s="2" t="str">
-        <f>VLOOKUP(E141,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E141,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H141" s="2" t="str">
-        <f>VLOOKUP(E141,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E141,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I141" s="2" t="str">
+        <f>VLOOKUP(E141,lookups_invert!$A$2:$F$102,5,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="142">
       <c r="G142" s="2" t="str">
-        <f>VLOOKUP(E142,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E142,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H142" s="2" t="str">
-        <f>VLOOKUP(E142,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E142,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I142" s="2" t="str">
+        <f>VLOOKUP(E142,lookups_invert!$A$2:$F$102,5,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="143">
       <c r="G143" s="2" t="str">
-        <f>VLOOKUP(E143,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E143,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H143" s="2" t="str">
-        <f>VLOOKUP(E143,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E143,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I143" s="2" t="str">
+        <f>VLOOKUP(E143,lookups_invert!$A$2:$F$102,5,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="144">
       <c r="G144" s="2" t="str">
-        <f>VLOOKUP(E144,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E144,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H144" s="2" t="str">
-        <f>VLOOKUP(E144,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E144,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I144" s="2" t="str">
+        <f>VLOOKUP(E144,lookups_invert!$A$2:$F$102,5,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="145">
       <c r="G145" s="2" t="str">
-        <f>VLOOKUP(E145,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E145,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H145" s="2" t="str">
-        <f>VLOOKUP(E145,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E145,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I145" s="2" t="str">
+        <f>VLOOKUP(E145,lookups_invert!$A$2:$F$102,5,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="146">
       <c r="G146" s="2" t="str">
-        <f>VLOOKUP(E146,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E146,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H146" s="2" t="str">
-        <f>VLOOKUP(E146,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E146,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I146" s="2" t="str">
+        <f>VLOOKUP(E146,lookups_invert!$A$2:$F$102,5,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="147">
       <c r="G147" s="2" t="str">
-        <f>VLOOKUP(E147,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E147,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H147" s="2" t="str">
-        <f>VLOOKUP(E147,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E147,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I147" s="2" t="str">
+        <f>VLOOKUP(E147,lookups_invert!$A$2:$F$102,5,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="148">
       <c r="G148" s="2" t="str">
-        <f>VLOOKUP(E148,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E148,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H148" s="2" t="str">
-        <f>VLOOKUP(E148,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E148,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I148" s="2" t="str">
+        <f>VLOOKUP(E148,lookups_invert!$A$2:$F$102,5,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="149">
       <c r="G149" s="2" t="str">
-        <f>VLOOKUP(E149,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E149,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H149" s="2" t="str">
-        <f>VLOOKUP(E149,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E149,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I149" s="2" t="str">
+        <f>VLOOKUP(E149,lookups_invert!$A$2:$F$102,5,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="150">
       <c r="G150" s="2" t="str">
-        <f>VLOOKUP(E150,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E150,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H150" s="2" t="str">
-        <f>VLOOKUP(E150,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E150,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I150" s="2" t="str">
+        <f>VLOOKUP(E150,lookups_invert!$A$2:$F$102,5,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="151">
       <c r="G151" s="2" t="str">
-        <f>VLOOKUP(E151,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E151,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H151" s="2" t="str">
-        <f>VLOOKUP(E151,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E151,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I151" s="2" t="str">
+        <f>VLOOKUP(E151,lookups_invert!$A$2:$F$102,5,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="152">
       <c r="G152" s="2" t="str">
-        <f>VLOOKUP(E152,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E152,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H152" s="2" t="str">
-        <f>VLOOKUP(E152,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E152,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I152" s="2" t="str">
+        <f>VLOOKUP(E152,lookups_invert!$A$2:$F$102,5,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="153">
       <c r="G153" s="2" t="str">
-        <f>VLOOKUP(E153,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E153,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H153" s="2" t="str">
-        <f>VLOOKUP(E153,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E153,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I153" s="2" t="str">
+        <f>VLOOKUP(E153,lookups_invert!$A$2:$F$102,5,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="154">
       <c r="G154" s="2" t="str">
-        <f>VLOOKUP(E154,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E154,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H154" s="2" t="str">
-        <f>VLOOKUP(E154,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E154,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I154" s="2" t="str">
+        <f>VLOOKUP(E154,lookups_invert!$A$2:$F$102,5,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="155">
       <c r="G155" s="2" t="str">
-        <f>VLOOKUP(E155,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E155,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H155" s="2" t="str">
-        <f>VLOOKUP(E155,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E155,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I155" s="2" t="str">
+        <f>VLOOKUP(E155,lookups_invert!$A$2:$F$102,5,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="156">
       <c r="G156" s="2" t="str">
-        <f>VLOOKUP(E156,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E156,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H156" s="2" t="str">
-        <f>VLOOKUP(E156,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E156,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I156" s="2" t="str">
+        <f>VLOOKUP(E156,lookups_invert!$A$2:$F$102,5,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="157">
       <c r="G157" s="2" t="str">
-        <f>VLOOKUP(E157,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E157,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H157" s="2" t="str">
-        <f>VLOOKUP(E157,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E157,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I157" s="2" t="str">
+        <f>VLOOKUP(E157,lookups_invert!$A$2:$F$102,5,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="158">
       <c r="G158" s="2" t="str">
-        <f>VLOOKUP(E158,lookups_invert!$A$2:$E$102,2,0)</f>
+        <f>VLOOKUP(E158,lookups_invert!$A$2:$F$102,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="H158" s="2" t="str">
-        <f>VLOOKUP(E158,lookups_invert!$A$2:$E$102,4,0)</f>
+        <f>VLOOKUP(E158,lookups_invert!$A$2:$F$102,4,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I158" s="2" t="str">
+        <f>VLOOKUP(E158,lookups_invert!$A$2:$F$102,5,0)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29172,10 +29246,10 @@
         <v>190</v>
       </c>
       <c r="D15" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="E15" s="27" t="s">
         <v>191</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>192</v>
       </c>
       <c r="F15" s="28">
         <v>0.0234</v>
@@ -29211,13 +29285,13 @@
     </row>
     <row r="16">
       <c r="A16" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="C16" s="32" t="s">
         <v>194</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>195</v>
       </c>
       <c r="D16" s="27" t="s">
         <v>187</v>
@@ -29255,13 +29329,13 @@
     </row>
     <row r="17">
       <c r="A17" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="C17" s="26" t="s">
         <v>197</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>198</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>163</v>
@@ -29303,13 +29377,13 @@
     </row>
     <row r="18">
       <c r="A18" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="C18" s="26" t="s">
         <v>200</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>201</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>163</v>
@@ -29351,16 +29425,16 @@
     </row>
     <row r="19">
       <c r="A19" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="C19" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="D19" s="27" t="s">
         <v>204</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>205</v>
       </c>
       <c r="E19" s="27" t="s">
         <v>145</v>
@@ -29399,16 +29473,16 @@
     </row>
     <row r="20">
       <c r="A20" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="C20" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="D20" s="27" t="s">
         <v>208</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>209</v>
       </c>
       <c r="E20" s="27" t="s">
         <v>139</v>
@@ -29447,16 +29521,16 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="C21" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="26" t="s">
-        <v>212</v>
-      </c>
       <c r="D21" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E21" s="27" t="s">
         <v>139</v>
@@ -29495,16 +29569,16 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="B22" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="C22" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="C22" s="26" t="s">
-        <v>215</v>
-      </c>
       <c r="D22" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E22" s="27" t="s">
         <v>139</v>
@@ -29543,16 +29617,16 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="C23" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="D23" s="27" t="s">
         <v>218</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>191</v>
       </c>
       <c r="E23" s="27" t="s">
         <v>139</v>
@@ -29600,7 +29674,7 @@
         <v>220</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="E24" s="27" t="s">
         <v>139</v>
@@ -29843,7 +29917,7 @@
         <v>224</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F29" s="28">
         <v>0.0252</v>
@@ -30124,7 +30198,7 @@
         <v>255</v>
       </c>
       <c r="D35" s="27" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="E35" s="27" t="s">
         <v>139</v>
@@ -30172,7 +30246,7 @@
         <v>258</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="E36" s="27" t="s">
         <v>139</v>
@@ -30220,7 +30294,7 @@
         <v>261</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="E37" s="27" t="s">
         <v>139</v>
@@ -31416,7 +31490,7 @@
         <v>337</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="E62" s="27" t="s">
         <v>139</v>
@@ -32184,7 +32258,7 @@
         <v>385</v>
       </c>
       <c r="D78" s="27" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="E78" s="27" t="s">
         <v>139</v>
@@ -32376,7 +32450,7 @@
         <v>397</v>
       </c>
       <c r="D82" s="27" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="E82" s="27" t="s">
         <v>139</v>
@@ -32612,7 +32686,7 @@
         <v>412</v>
       </c>
       <c r="D87" s="27" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="E87" s="27" t="s">
         <v>139</v>
@@ -33708,7 +33782,7 @@
         <v>471</v>
       </c>
       <c r="D110" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E110" s="27" t="s">
         <v>139</v>
@@ -58861,12 +58935,14 @@
         <v>92</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>496</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43"/>
       <c r="H1" s="43"/>
       <c r="I1" s="43"/>
       <c r="J1" s="43"/>
@@ -58886,6 +58962,7 @@
       <c r="X1" s="43"/>
       <c r="Y1" s="43"/>
       <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -58903,22 +58980,28 @@
       <c r="E2" s="2" t="s">
         <v>500</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>502</v>
-      </c>
-      <c r="D3" s="44" t="s">
+        <v>503</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>499</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>500</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="4">
@@ -58926,16 +59009,19 @@
         <v>100</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>504</v>
-      </c>
-      <c r="D4" s="44" t="s">
+        <v>505</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>499</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="5">
@@ -58943,16 +59029,19 @@
         <v>111</v>
       </c>
       <c r="B5" s="44" t="s">
+        <v>507</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>508</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>507</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>499</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="6">
@@ -58960,16 +59049,19 @@
         <v>98</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>509</v>
-      </c>
-      <c r="D6" s="44" t="s">
+        <v>510</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>499</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>510</v>
+        <v>500</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="7">
@@ -58977,16 +59069,19 @@
         <v>99</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="8">
@@ -58994,16 +59089,19 @@
         <v>109</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>515</v>
-      </c>
-      <c r="D8" s="44" t="s">
+        <v>516</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>499</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>510</v>
+        <v>500</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="9">
@@ -59011,16 +59109,19 @@
         <v>106</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>517</v>
-      </c>
-      <c r="D9" s="44" t="s">
+        <v>518</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>499</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="10">
@@ -59028,203 +59129,236 @@
         <v>95</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>520</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>500</v>
+        <v>521</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="B11" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>524</v>
+      </c>
+      <c r="D11" s="44" t="s">
         <v>521</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="E11" s="44" t="s">
         <v>522</v>
       </c>
-      <c r="D11" s="44" t="s">
-        <v>520</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>500</v>
+      <c r="F11" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>523</v>
-      </c>
-      <c r="C12" s="44" t="s">
-        <v>524</v>
+        <v>525</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>526</v>
       </c>
       <c r="D12" s="44" t="s">
-        <v>520</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>500</v>
+        <v>521</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>500</v>
+        <v>104</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>527</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>528</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>521</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>527</v>
-      </c>
-      <c r="C14" s="44" t="s">
-        <v>528</v>
+        <v>114</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>530</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>529</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>500</v>
+        <v>521</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>529</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>505</v>
+        <v>533</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>534</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C16" s="44" t="s">
+        <v>536</v>
+      </c>
+      <c r="D16" s="44" t="s">
         <v>533</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="E16" s="44" t="s">
         <v>534</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>500</v>
+      <c r="F16" s="2" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>537</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>500</v>
+        <v>533</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>539</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>538</v>
+        <v>501</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>500</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>538</v>
+        <v>501</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C19" s="44" t="s">
+        <v>545</v>
+      </c>
+      <c r="D19" s="44" t="s">
         <v>542</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>543</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>500</v>
       </c>
+      <c r="F19" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C20" s="44" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D20" s="44" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>500</v>
       </c>
+      <c r="F20" s="2" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="D21" s="44" t="s">
         <v>548</v>
@@ -59232,44 +59366,53 @@
       <c r="E21" s="2" t="s">
         <v>500</v>
       </c>
+      <c r="F21" s="2" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="D22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="44" t="s">
         <v>551</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>552</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>542</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>500</v>
       </c>
+      <c r="F22" s="2" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>554</v>
+        <v>514</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>500</v>
       </c>
+      <c r="F23" s="2" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>555</v>
@@ -59281,208 +59424,250 @@
         <v>557</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>500</v>
+        <v>139</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B25" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>558</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>559</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>500</v>
       </c>
+      <c r="F25" s="2" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>560</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>562</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>513</v>
+        <v>557</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>500</v>
       </c>
+      <c r="F26" s="2" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>564</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>565</v>
+        <v>514</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>500</v>
       </c>
+      <c r="F27" s="2" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>500</v>
+        <v>521</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>500</v>
+        <v>521</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>500</v>
+        <v>521</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>500</v>
+        <v>557</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>500</v>
+        <v>521</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>500</v>
       </c>
+      <c r="F34" s="2" t="s">
+        <v>511</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>510</v>
+        <v>521</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>585</v>
+        <v>500</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="37">
@@ -59490,16 +59675,19 @@
         <v>130</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>519</v>
+        <v>582</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>585</v>
+        <v>521</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>522</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="38">
@@ -59507,16 +59695,19 @@
         <v>131</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>500</v>
+        <v>139</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
